--- a/records_maps/Capstone Maps/abcnorio-map2019.xlsx
+++ b/records_maps/Capstone Maps/abcnorio-map2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Dropbox/gradschool/CUNYGC/MADH/capstone/Maps and Records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE0C580-8C1F-0248-97D4-5B736F53D5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BFB82D-6CEE-DF41-9E5F-1C7B4C8FB509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="520" windowWidth="24500" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -206,9 +206,6 @@
     <t>{ "relationshipType": "creator", "entityType": "ind"}</t>
   </si>
   <si>
-    <t>ca_objects.date.dates_value</t>
-  </si>
-  <si>
     <t>ca_objects.language</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>{"delimiter": ",","list": "languages"}</t>
+  </si>
+  <si>
+    <t>ca_objects.date.datetext</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
   <dimension ref="A1:Z1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1106,7 +1106,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1231,14 +1231,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1268,15 +1268,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1312,7 +1312,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1407,16 +1407,16 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1568,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1727,20 +1727,20 @@
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -1793,13 +1793,13 @@
     <row r="30" spans="1:26">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>33</v>
@@ -1831,16 +1831,16 @@
         <v>13</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
@@ -1869,16 +1869,16 @@
         <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="7"/>
@@ -1907,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
@@ -1979,16 +1979,16 @@
         <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="10"/>
@@ -2017,16 +2017,16 @@
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2055,13 +2055,13 @@
         <v>13</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3"/>
@@ -2091,13 +2091,13 @@
         <v>13</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2127,13 +2127,13 @@
         <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2163,13 +2163,13 @@
         <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2199,7 +2199,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>2</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -29583,10 +29583,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -29620,14 +29620,14 @@
         <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -29654,13 +29654,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="3"/>

--- a/records_maps/Capstone Maps/abcnorio-map2019.xlsx
+++ b/records_maps/Capstone Maps/abcnorio-map2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BFB82D-6CEE-DF41-9E5F-1C7B4C8FB509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC3385A-59F9-8A46-8C24-A7DC0FED5FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="520" windowWidth="24500" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t>Mapping</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>{ "relationshipType": "part_of", "collectionType": "external" }</t>
-  </si>
-  <si>
-    <t>{"delimiter": ",", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
   </si>
   <si>
     <t>{"delimiter": ",","list": "languages"}</t>
@@ -786,8 +783,8 @@
   <dimension ref="A1:Z1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
@@ -940,7 +937,9 @@
         <v>84</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F4" s="13"/>
       <c r="G4" s="4"/>
       <c r="H4" s="7"/>
@@ -1233,12 +1232,14 @@
       <c r="C13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1276,7 +1277,7 @@
         <v>88</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -1568,7 +1569,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
